--- a/MapConfig/strategy/Instructions.xlsx
+++ b/MapConfig/strategy/Instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18750" windowHeight="8505"/>
+    <workbookView windowWidth="19140" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="200">
   <si>
     <t>A1</t>
   </si>
@@ -624,9 +624,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -637,6 +637,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -645,9 +668,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,46 +743,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,31 +768,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,31 +780,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +796,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -808,43 +814,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1D5F01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,25 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,97 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,8 +1037,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1047,32 +1061,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,18 +1089,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,8 +1112,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,137 +1150,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,9 +1289,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,6 +1358,7 @@
       <color rgb="00A3D86B"/>
       <color rgb="00A1CD9D"/>
       <color rgb="008B7B73"/>
+      <color rgb="001D5F01"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1348,6 +1367,340 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2019300" y="1352550"/>
+          <a:ext cx="295275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2371725" y="1028700"/>
+          <a:ext cx="9525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="1362075"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="1343025"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2047875" y="5972175"/>
+          <a:ext cx="304800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1628775" y="5924550"/>
+          <a:ext cx="342900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1946275" y="5610225"/>
+          <a:ext cx="15875" cy="250825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1608,16 +1961,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="3" max="20" width="5.625" customWidth="1"/>
+    <col min="1" max="21" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:20">
@@ -1636,7 +1988,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1692,13 +2044,13 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1707,7 +2059,7 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1754,13 +2106,13 @@
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1769,7 +2121,7 @@
       <c r="H3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1816,31 +2168,31 @@
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1878,13 +2230,13 @@
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1902,7 +2254,7 @@
       <c r="K5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1940,13 +2292,13 @@
       <c r="C6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1964,7 +2316,7 @@
       <c r="K6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>111</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2002,13 +2354,13 @@
       <c r="C7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2026,13 +2378,13 @@
       <c r="K7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>133</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -2070,7 +2422,7 @@
       <c r="E8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -2088,7 +2440,7 @@
       <c r="K8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>151</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -2132,7 +2484,7 @@
       <c r="E9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2150,7 +2502,7 @@
       <c r="K9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>171</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2194,7 +2546,7 @@
       <c r="E10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2240,8 +2592,775 @@
         <v>199</v>
       </c>
     </row>
+    <row r="11" ht="30" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1"/>
+    <row r="14" ht="30" customHeight="1" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:20">
+      <c r="A23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="30" customHeight="1"/>
+    <row r="46" ht="30" customHeight="1"/>
+    <row r="47" ht="30" customHeight="1"/>
+    <row r="48" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
+    <row r="51" ht="30" customHeight="1"/>
+    <row r="52" ht="30" customHeight="1"/>
+    <row r="53" ht="30" customHeight="1"/>
+    <row r="54" ht="30" customHeight="1"/>
+    <row r="55" ht="30" customHeight="1"/>
+    <row r="56" ht="30" customHeight="1"/>
+    <row r="57" ht="30" customHeight="1"/>
+    <row r="58" ht="30" customHeight="1"/>
+    <row r="59" ht="30" customHeight="1"/>
+    <row r="60" ht="30" customHeight="1"/>
+    <row r="61" ht="30" customHeight="1"/>
+    <row r="62" ht="30" customHeight="1"/>
+    <row r="63" ht="30" customHeight="1"/>
+    <row r="64" ht="30" customHeight="1"/>
+    <row r="65" ht="30" customHeight="1"/>
+    <row r="66" ht="30" customHeight="1"/>
+    <row r="67" ht="30" customHeight="1"/>
+    <row r="68" ht="30" customHeight="1"/>
+    <row r="69" ht="30" customHeight="1"/>
+    <row r="70" ht="30" customHeight="1"/>
+    <row r="71" ht="30" customHeight="1"/>
+    <row r="72" ht="30" customHeight="1"/>
+    <row r="73" ht="30" customHeight="1"/>
+    <row r="74" ht="30" customHeight="1"/>
+    <row r="75" ht="30" customHeight="1"/>
+    <row r="76" ht="30" customHeight="1"/>
+    <row r="77" ht="30" customHeight="1"/>
+    <row r="78" ht="30" customHeight="1"/>
+    <row r="79" ht="30" customHeight="1"/>
+    <row r="80" ht="30" customHeight="1"/>
+    <row r="81" ht="30" customHeight="1"/>
+    <row r="82" ht="30" customHeight="1"/>
+    <row r="83" ht="30" customHeight="1"/>
+    <row r="84" ht="30" customHeight="1"/>
+    <row r="85" ht="30" customHeight="1"/>
+    <row r="86" ht="30" customHeight="1"/>
+    <row r="87" ht="30" customHeight="1"/>
+    <row r="88" ht="30" customHeight="1"/>
+    <row r="89" ht="30" customHeight="1"/>
+    <row r="90" ht="30" customHeight="1"/>
+    <row r="91" ht="30" customHeight="1"/>
+    <row r="92" ht="30" customHeight="1"/>
+    <row r="93" ht="30" customHeight="1"/>
+    <row r="94" ht="30" customHeight="1"/>
+    <row r="95" ht="30" customHeight="1"/>
+    <row r="96" ht="30" customHeight="1"/>
+    <row r="97" ht="30" customHeight="1"/>
+    <row r="98" ht="30" customHeight="1"/>
+    <row r="99" ht="30" customHeight="1"/>
+    <row r="100" ht="30" customHeight="1"/>
+    <row r="101" ht="30" customHeight="1"/>
+    <row r="102" ht="30" customHeight="1"/>
+    <row r="103" ht="30" customHeight="1"/>
+    <row r="104" ht="30" customHeight="1"/>
+    <row r="105" ht="30" customHeight="1"/>
+    <row r="106" ht="30" customHeight="1"/>
+    <row r="107" ht="30" customHeight="1"/>
+    <row r="108" ht="30" customHeight="1"/>
+    <row r="109" ht="30" customHeight="1"/>
+    <row r="110" ht="30" customHeight="1"/>
+    <row r="111" ht="30" customHeight="1"/>
+    <row r="112" ht="30" customHeight="1"/>
+    <row r="113" ht="30" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="115" ht="30" customHeight="1"/>
+    <row r="116" ht="30" customHeight="1"/>
+    <row r="117" ht="30" customHeight="1"/>
+    <row r="118" ht="30" customHeight="1"/>
+    <row r="119" ht="30" customHeight="1"/>
+    <row r="120" ht="30" customHeight="1"/>
+    <row r="121" ht="30" customHeight="1"/>
+    <row r="122" ht="30" customHeight="1"/>
+    <row r="123" ht="30" customHeight="1"/>
+    <row r="124" ht="30" customHeight="1"/>
+    <row r="125" ht="30" customHeight="1"/>
+    <row r="126" ht="30" customHeight="1"/>
+    <row r="127" ht="30" customHeight="1"/>
+    <row r="128" ht="30" customHeight="1"/>
+    <row r="129" ht="30" customHeight="1"/>
+    <row r="130" ht="30" customHeight="1"/>
+    <row r="131" ht="30" customHeight="1"/>
+    <row r="132" ht="30" customHeight="1"/>
+    <row r="133" ht="30" customHeight="1"/>
+    <row r="134" ht="30" customHeight="1"/>
+    <row r="135" ht="30" customHeight="1"/>
+    <row r="136" ht="30" customHeight="1"/>
+    <row r="137" ht="30" customHeight="1"/>
+    <row r="138" ht="30" customHeight="1"/>
+    <row r="139" ht="30" customHeight="1"/>
+    <row r="140" ht="30" customHeight="1"/>
+    <row r="141" ht="30" customHeight="1"/>
+    <row r="142" ht="30" customHeight="1"/>
+    <row r="143" ht="30" customHeight="1"/>
+    <row r="144" ht="30" customHeight="1"/>
+    <row r="145" ht="30" customHeight="1"/>
+    <row r="146" ht="30" customHeight="1"/>
+    <row r="147" ht="30" customHeight="1"/>
+    <row r="148" ht="30" customHeight="1"/>
+    <row r="149" ht="30" customHeight="1"/>
+    <row r="150" ht="30" customHeight="1"/>
+    <row r="151" ht="30" customHeight="1"/>
+    <row r="152" ht="30" customHeight="1"/>
+    <row r="153" ht="30" customHeight="1"/>
+    <row r="154" ht="30" customHeight="1"/>
+    <row r="155" ht="30" customHeight="1"/>
+    <row r="156" ht="30" customHeight="1"/>
+    <row r="157" ht="30" customHeight="1"/>
+    <row r="158" ht="30" customHeight="1"/>
+    <row r="159" ht="30" customHeight="1"/>
+    <row r="160" ht="30" customHeight="1"/>
+    <row r="161" ht="30" customHeight="1"/>
+    <row r="162" ht="30" customHeight="1"/>
+    <row r="163" ht="30" customHeight="1"/>
+    <row r="164" ht="30" customHeight="1"/>
+    <row r="165" ht="30" customHeight="1"/>
+    <row r="166" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>